--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2712.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2712.xlsx
@@ -354,7 +354,7 @@
         <v>2.407022691293232</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.349745761021026</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2712.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2712.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.167351024203149</v>
+        <v>1.157908320426941</v>
       </c>
       <c r="B1">
-        <v>2.407022691293232</v>
+        <v>3.253323078155518</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.395672798156738</v>
       </c>
       <c r="D1">
-        <v>2.349745761021026</v>
+        <v>0.9752137660980225</v>
       </c>
       <c r="E1">
-        <v>1.214461436638008</v>
+        <v>1.190178394317627</v>
       </c>
     </row>
   </sheetData>
